--- a/branches/jembi-contrib-fresh/StructureDefinition-hiv-patient.xlsx
+++ b/branches/jembi-contrib-fresh/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T07:37:47+00:00</t>
+    <t>2021-09-07T11:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/jembi-contrib-fresh/StructureDefinition-hiv-patient.xlsx
+++ b/branches/jembi-contrib-fresh/StructureDefinition-hiv-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$95</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3477" uniqueCount="519">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T11:28:37+00:00</t>
+    <t>2021-09-16T07:55:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,33 +449,20 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>genderIdentity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-casereporting/StructureDefinition/gender-identity}
+    <t>keyPopulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-casereporting/StructureDefinition/key-population}
 </t>
   </si>
   <si>
-    <t>Gender Identity</t>
-  </si>
-  <si>
-    <t>Gender identity</t>
+    <t>Key population</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>keyPopulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-casereporting/StructureDefinition/key-population}
-</t>
-  </si>
-  <si>
-    <t>Key population</t>
-  </si>
-  <si>
     <t>Patient.modifierExtension</t>
   </si>
   <si>
@@ -537,15 +524,6 @@
     <t>art</t>
   </si>
   <si>
-    <t>passport</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>pos</t>
-  </si>
-  <si>
     <t>Patient.identifier.id</t>
   </si>
   <si>
@@ -655,6 +633,9 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
+    <t>http://openhie.org/fhir/hiv-casereporting/identifier/art</t>
+  </si>
+  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
@@ -736,6 +717,21 @@
   </si>
   <si>
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>passport</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-casereporting/identifier/passport</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-casereporting/identifier/nid</t>
+  </si>
+  <si>
+    <t>pos</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -1953,7 +1949,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN72"/>
+  <dimension ref="A1:AN95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1963,7 +1959,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.56640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3063,7 +3059,7 @@
         <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3123,7 +3119,7 @@
         <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>138</v>
@@ -3144,43 +3140,45 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="I11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="M11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>80</v>
       </c>
@@ -3228,7 +3226,7 @@
         <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
@@ -3237,13 +3235,13 @@
         <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>80</v>
@@ -3260,11 +3258,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3277,25 +3275,23 @@
         <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I12" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>80</v>
@@ -3332,19 +3328,19 @@
         <v>80</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -3356,19 +3352,19 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>80</v>
@@ -3376,9 +3372,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="C13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3399,17 +3397,17 @@
         <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>80</v>
@@ -3446,19 +3444,19 @@
         <v>80</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -3473,16 +3471,16 @@
         <v>99</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>80</v>
@@ -3490,11 +3488,9 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3503,7 +3499,7 @@
         <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>80</v>
@@ -3512,21 +3508,19 @@
         <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="N14" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3574,31 +3568,31 @@
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
@@ -3606,13 +3600,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3628,21 +3620,21 @@
         <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3678,19 +3670,19 @@
         <v>80</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3702,19 +3694,19 @@
         <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -3722,11 +3714,9 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>80</v>
       </c>
@@ -3735,29 +3725,31 @@
         <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="N16" t="s" s="2">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>80</v>
@@ -3782,13 +3774,13 @@
         <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>80</v>
@@ -3806,13 +3798,13 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>80</v>
@@ -3821,16 +3813,16 @@
         <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -3838,11 +3830,9 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>80</v>
       </c>
@@ -3851,7 +3841,7 @@
         <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>80</v>
@@ -3863,17 +3853,19 @@
         <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="N17" t="s" s="2">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>80</v>
@@ -3898,13 +3890,13 @@
         <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>80</v>
@@ -3922,13 +3914,13 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>80</v>
@@ -3937,16 +3929,16 @@
         <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -3954,7 +3946,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3962,7 +3954,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>87</v>
@@ -3974,19 +3966,23 @@
         <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>80</v>
       </c>
@@ -3995,10 +3991,10 @@
         <v>80</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>80</v>
@@ -4034,7 +4030,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4046,10 +4042,10 @@
         <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4058,7 +4054,7 @@
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>80</v>
@@ -4066,18 +4062,18 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>80</v>
@@ -4086,19 +4082,19 @@
         <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4112,7 +4108,7 @@
         <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>80</v>
@@ -4136,34 +4132,34 @@
         <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
@@ -4172,7 +4168,7 @@
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>80</v>
@@ -4180,7 +4176,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4197,26 +4193,22 @@
         <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4240,13 +4232,13 @@
         <v>80</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>80</v>
@@ -4264,7 +4256,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4279,7 +4271,7 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
@@ -4288,7 +4280,7 @@
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
@@ -4296,7 +4288,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4319,20 +4311,18 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4356,13 +4346,13 @@
         <v>80</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>80</v>
@@ -4380,7 +4370,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4395,7 +4385,7 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
@@ -4404,7 +4394,7 @@
         <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4412,9 +4402,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4423,7 +4415,7 @@
         <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>80</v>
@@ -4435,19 +4427,17 @@
         <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>80</v>
@@ -4460,7 +4450,7 @@
         <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>80</v>
@@ -4496,13 +4486,13 @@
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>80</v>
@@ -4511,16 +4501,16 @@
         <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
@@ -4528,7 +4518,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4536,7 +4526,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>87</v>
@@ -4548,20 +4538,18 @@
         <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>80</v>
@@ -4574,7 +4562,7 @@
         <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>80</v>
@@ -4610,7 +4598,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4622,10 +4610,10 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
@@ -4634,7 +4622,7 @@
         <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>80</v>
@@ -4642,18 +4630,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>80</v>
@@ -4662,18 +4650,20 @@
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>218</v>
+        <v>132</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -4710,34 +4700,34 @@
         <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
@@ -4746,7 +4736,7 @@
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
@@ -4754,7 +4744,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4771,24 +4761,26 @@
         <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4812,13 +4804,13 @@
         <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>80</v>
@@ -4836,7 +4828,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4851,7 +4843,7 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
@@ -4860,7 +4852,7 @@
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>231</v>
+        <v>130</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -4868,7 +4860,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4885,32 +4877,30 @@
         <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P26" t="s" s="2">
-        <v>238</v>
-      </c>
+      <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4930,13 +4920,13 @@
         <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>80</v>
@@ -4954,7 +4944,7 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4969,24 +4959,24 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4997,10 +4987,10 @@
         <v>87</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -5009,19 +4999,19 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>242</v>
+        <v>101</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -5031,10 +5021,10 @@
         <v>80</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>80</v>
@@ -5070,13 +5060,13 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>80</v>
@@ -5085,16 +5075,16 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5102,7 +5092,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5113,7 +5103,7 @@
         <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>80</v>
@@ -5125,20 +5115,18 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>251</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5150,7 +5138,7 @@
         <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>80</v>
@@ -5186,13 +5174,13 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>80</v>
@@ -5201,24 +5189,24 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5226,13 +5214,13 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5241,20 +5229,16 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5278,13 +5262,13 @@
         <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>80</v>
@@ -5302,7 +5286,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5317,24 +5301,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5348,7 +5332,7 @@
         <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -5357,20 +5341,18 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5418,7 +5400,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5433,26 +5415,28 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>277</v>
+        <v>225</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5461,31 +5445,29 @@
         <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>280</v>
+        <v>151</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>281</v>
+        <v>152</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>284</v>
+        <v>154</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>80</v>
@@ -5534,13 +5516,13 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>279</v>
+        <v>150</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>80</v>
@@ -5549,16 +5531,16 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>285</v>
+        <v>157</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5566,7 +5548,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5574,10 +5556,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>80</v>
@@ -5586,23 +5568,19 @@
         <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>288</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>289</v>
+        <v>163</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5638,43 +5616,43 @@
         <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>295</v>
+        <v>166</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5682,18 +5660,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>167</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>80</v>
@@ -5705,15 +5683,17 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>80</v>
@@ -5750,34 +5730,34 @@
         <v>80</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -5794,41 +5774,43 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>172</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5852,46 +5834,46 @@
         <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -5900,7 +5882,7 @@
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -5908,7 +5890,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>182</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5925,25 +5907,25 @@
         <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>301</v>
+        <v>184</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>302</v>
+        <v>185</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>303</v>
+        <v>186</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>304</v>
+        <v>187</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -5956,7 +5938,7 @@
         <v>80</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>80</v>
@@ -5968,13 +5950,13 @@
         <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>306</v>
+        <v>189</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>307</v>
+        <v>190</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
@@ -5992,7 +5974,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>308</v>
+        <v>191</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6007,7 +5989,7 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>309</v>
+        <v>181</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -6016,7 +5998,7 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>310</v>
+        <v>192</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6024,7 +6006,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>193</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6032,7 +6014,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>87</v>
@@ -6047,18 +6029,20 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>312</v>
+        <v>194</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
+        <v>195</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6067,10 +6051,10 @@
         <v>80</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>315</v>
+        <v>199</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>80</v>
@@ -6082,13 +6066,13 @@
         <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>80</v>
@@ -6106,7 +6090,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>318</v>
+        <v>200</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6121,7 +6105,7 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>309</v>
+        <v>201</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -6130,7 +6114,7 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>319</v>
+        <v>202</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6138,7 +6122,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>203</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6164,17 +6148,15 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>322</v>
+        <v>205</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6186,7 +6168,7 @@
         <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>325</v>
+        <v>207</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>80</v>
@@ -6222,7 +6204,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>326</v>
+        <v>208</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6237,7 +6219,7 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>327</v>
+        <v>209</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
@@ -6246,7 +6228,7 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>328</v>
+        <v>210</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6254,7 +6236,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>211</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6265,7 +6247,7 @@
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>80</v>
@@ -6277,13 +6259,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>330</v>
+        <v>213</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>331</v>
+        <v>214</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6298,7 +6280,7 @@
         <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>80</v>
@@ -6334,13 +6316,13 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>333</v>
+        <v>215</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>80</v>
@@ -6349,7 +6331,7 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>334</v>
+        <v>216</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -6358,19 +6340,19 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>335</v>
+        <v>217</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>218</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6380,7 +6362,7 @@
         <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6389,15 +6371,17 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>338</v>
+        <v>220</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6410,7 +6394,7 @@
         <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>80</v>
@@ -6446,7 +6430,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>341</v>
+        <v>223</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6461,7 +6445,7 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>342</v>
+        <v>224</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
@@ -6470,29 +6454,31 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>343</v>
+        <v>225</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="C40" t="s" s="2">
-        <v>345</v>
+        <v>80</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6501,18 +6487,18 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>346</v>
+        <v>152</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6524,7 +6510,7 @@
         <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>80</v>
@@ -6560,13 +6546,13 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>80</v>
@@ -6575,28 +6561,28 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>351</v>
+        <v>157</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>352</v>
+        <v>160</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>353</v>
+        <v>162</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6606,22 +6592,22 @@
         <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>355</v>
+        <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>356</v>
+        <v>164</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6672,7 +6658,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>357</v>
+        <v>165</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6684,10 +6670,10 @@
         <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>358</v>
+        <v>166</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
@@ -6696,7 +6682,7 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -6704,18 +6690,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>167</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>361</v>
+        <v>144</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>80</v>
@@ -6724,18 +6710,20 @@
         <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>362</v>
+        <v>168</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>80</v>
@@ -6748,7 +6736,7 @@
         <v>80</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>80</v>
@@ -6772,34 +6760,34 @@
         <v>80</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>365</v>
+        <v>171</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>366</v>
+        <v>166</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -6808,15 +6796,15 @@
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>368</v>
+        <v>172</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6830,27 +6818,29 @@
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H43" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>369</v>
+        <v>173</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>370</v>
+        <v>174</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6874,13 +6864,13 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>80</v>
@@ -6898,7 +6888,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>372</v>
+        <v>180</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6913,7 +6903,7 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>373</v>
+        <v>181</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
@@ -6922,7 +6912,7 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>374</v>
+        <v>130</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -6930,7 +6920,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>375</v>
+        <v>182</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6953,17 +6943,19 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>376</v>
+        <v>184</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="N44" t="s" s="2">
-        <v>378</v>
+        <v>187</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
@@ -6976,7 +6968,7 @@
         <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>80</v>
@@ -6988,13 +6980,13 @@
         <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -7012,7 +7004,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>380</v>
+        <v>191</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7027,7 +7019,7 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>381</v>
+        <v>181</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7036,15 +7028,15 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>382</v>
+        <v>192</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>383</v>
+        <v>193</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7052,32 +7044,34 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>384</v>
+        <v>194</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="N45" t="s" s="2">
-        <v>386</v>
+        <v>197</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
@@ -7090,7 +7084,7 @@
         <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>80</v>
@@ -7102,11 +7096,13 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X45" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Y45" t="s" s="2">
-        <v>387</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7124,7 +7120,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>383</v>
+        <v>200</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7139,16 +7135,16 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>388</v>
+        <v>201</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>390</v>
+        <v>202</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7156,7 +7152,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>203</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7164,7 +7160,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>87</v>
@@ -7176,23 +7172,21 @@
         <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>392</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>393</v>
+        <v>204</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>394</v>
+        <v>205</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7204,7 +7198,7 @@
         <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>80</v>
@@ -7240,7 +7234,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>391</v>
+        <v>208</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7255,16 +7249,16 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>397</v>
+        <v>209</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>398</v>
+        <v>210</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7272,7 +7266,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>399</v>
+        <v>211</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7283,7 +7277,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>80</v>
@@ -7292,23 +7286,19 @@
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>400</v>
+        <v>212</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>401</v>
+        <v>213</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7356,13 +7346,13 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>399</v>
+        <v>215</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>80</v>
@@ -7371,16 +7361,16 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>405</v>
+        <v>216</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>406</v>
+        <v>217</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7388,7 +7378,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>407</v>
+        <v>218</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7399,7 +7389,7 @@
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>80</v>
@@ -7408,23 +7398,21 @@
         <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>408</v>
+        <v>219</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>409</v>
+        <v>220</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>410</v>
+        <v>221</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7472,31 +7460,31 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>407</v>
+        <v>223</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>413</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>414</v>
+        <v>224</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7504,7 +7492,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>415</v>
+        <v>231</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7521,26 +7509,32 @@
         <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>232</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="P49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="Q49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7584,7 +7578,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7596,16 +7590,16 @@
         <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7614,43 +7608,45 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>416</v>
+        <v>240</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7698,7 +7694,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7710,19 +7706,19 @@
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -7730,11 +7726,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>417</v>
+        <v>249</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7747,25 +7743,25 @@
         <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>132</v>
+        <v>250</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>419</v>
+        <v>251</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>420</v>
+        <v>252</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>151</v>
+        <v>253</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>80</v>
@@ -7814,7 +7810,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>421</v>
+        <v>249</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7826,27 +7822,27 @@
         <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>130</v>
+        <v>255</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>422</v>
+        <v>258</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7854,32 +7850,34 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>423</v>
+        <v>259</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="N52" t="s" s="2">
-        <v>425</v>
+        <v>262</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -7904,13 +7902,13 @@
         <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>426</v>
+        <v>263</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>427</v>
+        <v>264</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>80</v>
@@ -7928,13 +7926,13 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>422</v>
+        <v>258</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>80</v>
@@ -7943,24 +7941,24 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>428</v>
+        <v>265</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>429</v>
+        <v>267</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>430</v>
+        <v>268</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7974,26 +7972,28 @@
         <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>431</v>
+        <v>270</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="N53" t="s" s="2">
-        <v>433</v>
+        <v>273</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>80</v>
@@ -8042,7 +8042,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>430</v>
+        <v>268</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8057,24 +8057,24 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>173</v>
+        <v>275</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>434</v>
+        <v>276</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>80</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>435</v>
+        <v>278</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8085,31 +8085,31 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>436</v>
+        <v>280</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>437</v>
+        <v>281</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>438</v>
+        <v>282</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8158,13 +8158,13 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>435</v>
+        <v>278</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>80</v>
@@ -8173,16 +8173,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>439</v>
+        <v>285</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8190,7 +8190,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>440</v>
+        <v>286</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8198,10 +8198,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>80</v>
@@ -8210,20 +8210,22 @@
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K55" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="L55" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="N55" t="s" s="2">
-        <v>443</v>
+        <v>291</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8260,25 +8262,25 @@
         <v>80</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>440</v>
+        <v>286</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>80</v>
@@ -8287,16 +8289,16 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>444</v>
+        <v>296</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8304,7 +8306,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>445</v>
+        <v>297</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8327,18 +8329,16 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>260</v>
+        <v>163</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>446</v>
+        <v>164</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>447</v>
-      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8362,13 +8362,13 @@
         <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>80</v>
@@ -8386,7 +8386,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>445</v>
+        <v>165</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8398,19 +8398,19 @@
         <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>266</v>
+        <v>166</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8418,18 +8418,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>449</v>
+        <v>298</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>80</v>
@@ -8441,18 +8441,18 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>450</v>
+        <v>168</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8488,43 +8488,43 @@
         <v>80</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>449</v>
+        <v>171</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>454</v>
+        <v>166</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8532,7 +8532,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>456</v>
+        <v>299</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8549,22 +8549,26 @@
         <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>457</v>
+        <v>300</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8576,7 +8580,7 @@
         <v>80</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>80</v>
@@ -8588,13 +8592,13 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -8612,7 +8616,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>456</v>
+        <v>307</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8627,16 +8631,16 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>459</v>
+        <v>308</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -8644,7 +8648,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8655,7 +8659,7 @@
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>80</v>
@@ -8664,23 +8668,21 @@
         <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>408</v>
+        <v>107</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>461</v>
+        <v>311</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>462</v>
+        <v>312</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8692,7 +8694,7 @@
         <v>80</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>80</v>
@@ -8704,13 +8706,13 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
@@ -8728,13 +8730,13 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>460</v>
+        <v>317</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>80</v>
@@ -8743,16 +8745,16 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>465</v>
+        <v>308</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -8760,7 +8762,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>467</v>
+        <v>319</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8780,19 +8782,23 @@
         <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>170</v>
+        <v>320</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8804,7 +8810,7 @@
         <v>80</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>80</v>
@@ -8840,7 +8846,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8852,10 +8858,10 @@
         <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>173</v>
+        <v>326</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
@@ -8864,7 +8870,7 @@
         <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -8872,11 +8878,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>468</v>
+        <v>328</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8892,20 +8898,18 @@
         <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>175</v>
+        <v>329</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -8918,7 +8922,7 @@
         <v>80</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>80</v>
+        <v>331</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>80</v>
@@ -8954,7 +8958,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>178</v>
+        <v>332</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8966,10 +8970,10 @@
         <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>173</v>
+        <v>333</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
@@ -8978,51 +8982,47 @@
         <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>469</v>
+        <v>335</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>418</v>
+        <v>336</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>419</v>
+        <v>337</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>80</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>80</v>
@@ -9070,22 +9070,22 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>130</v>
+        <v>341</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
@@ -9094,51 +9094,49 @@
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>470</v>
+        <v>343</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>190</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>471</v>
+        <v>345</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>472</v>
+        <v>346</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9150,7 +9148,7 @@
         <v>80</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>80</v>
@@ -9162,13 +9160,13 @@
         <v>80</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>80</v>
@@ -9186,10 +9184,10 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>470</v>
+        <v>349</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>87</v>
@@ -9201,28 +9199,28 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>475</v>
+        <v>350</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>476</v>
+        <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>477</v>
+        <v>351</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>478</v>
+        <v>352</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9232,29 +9230,25 @@
         <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>479</v>
+        <v>354</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9302,7 +9296,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>478</v>
+        <v>356</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9317,16 +9311,16 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>483</v>
+        <v>357</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>484</v>
+        <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>485</v>
+        <v>358</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9334,18 +9328,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>486</v>
+        <v>359</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>487</v>
+        <v>360</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>80</v>
@@ -9354,20 +9348,18 @@
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>488</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>489</v>
+        <v>361</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>80</v>
@@ -9380,7 +9372,7 @@
         <v>80</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>80</v>
@@ -9416,13 +9408,13 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>486</v>
+        <v>364</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>80</v>
@@ -9431,24 +9423,24 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>492</v>
+        <v>365</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>493</v>
+        <v>366</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>494</v>
+        <v>367</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9456,13 +9448,13 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
@@ -9471,20 +9463,18 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>225</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>495</v>
+        <v>368</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>496</v>
+        <v>369</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>498</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>80</v>
       </c>
@@ -9532,7 +9522,7 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>494</v>
+        <v>371</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9547,16 +9537,16 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>454</v>
+        <v>372</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>499</v>
+        <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>80</v>
@@ -9564,7 +9554,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>500</v>
+        <v>374</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9575,31 +9565,29 @@
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>408</v>
+        <v>212</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>501</v>
+        <v>375</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>504</v>
+        <v>377</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -9612,7 +9600,7 @@
         <v>80</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>80</v>
@@ -9648,13 +9636,13 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>500</v>
+        <v>379</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>80</v>
@@ -9663,24 +9651,24 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>505</v>
+        <v>380</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>80</v>
+        <v>381</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>506</v>
+        <v>382</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9688,13 +9676,13 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
@@ -9703,16 +9691,18 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>170</v>
+        <v>383</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>171</v>
+        <v>384</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>80</v>
       </c>
@@ -9736,13 +9726,11 @@
         <v>80</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="X68" s="2"/>
       <c r="Y68" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>80</v>
@@ -9760,7 +9748,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>172</v>
+        <v>382</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9772,19 +9760,19 @@
         <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>173</v>
+        <v>387</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -9792,18 +9780,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>507</v>
+        <v>390</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>80</v>
@@ -9815,18 +9803,20 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>132</v>
+        <v>391</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>175</v>
+        <v>392</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>176</v>
+        <v>393</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>80</v>
       </c>
@@ -9874,31 +9864,31 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>178</v>
+        <v>390</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>173</v>
+        <v>396</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -9906,11 +9896,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>508</v>
+        <v>398</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9923,25 +9913,25 @@
         <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>132</v>
+        <v>399</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>151</v>
+        <v>402</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>152</v>
+        <v>403</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>80</v>
@@ -9990,7 +9980,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10002,19 +9992,19 @@
         <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>130</v>
+        <v>404</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
@@ -10022,7 +10012,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>509</v>
+        <v>406</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10030,10 +10020,10 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>80</v>
@@ -10042,21 +10032,23 @@
         <v>80</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>510</v>
+        <v>407</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>511</v>
+        <v>408</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10104,31 +10096,31 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>509</v>
+        <v>406</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>99</v>
+        <v>412</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>161</v>
+        <v>413</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>514</v>
+        <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>80</v>
@@ -10136,7 +10128,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>515</v>
+        <v>414</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10144,7 +10136,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>87</v>
@@ -10156,16 +10148,16 @@
         <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>516</v>
+        <v>163</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>517</v>
+        <v>164</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10192,62 +10184,2694 @@
         <v>80</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="Y95" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="Y72" t="s" s="2">
+      <c r="Z95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AK95" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN72">
+  <autoFilter ref="A1:AN95">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10257,7 +12881,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI71">
+  <conditionalFormatting sqref="A2:AI94">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
